--- a/oLMpics/gpt2-results/gpt2-xl-results.xlsx
+++ b/oLMpics/gpt2-results/gpt2-xl-results.xlsx
@@ -550,20 +550,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0.5175 0.525  0.525  0.53   0.5225]</t>
+          <t>[0.5175 0.5275 0.5275 0.5325 0.5225]</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>52.40000000000001</v>
+        <v>52.54999999999998</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5638986665747652</v>
+        <v>0.7078573884911421</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5183610133342523</v>
+        <v>0.5184214261150885</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5296389866657477</v>
+        <v>0.5325785738849113</v>
       </c>
     </row>
     <row r="5">
